--- a/src/main/resources/data/testData.xlsx
+++ b/src/main/resources/data/testData.xlsx
@@ -1,37 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spaidi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\DataValidationAutomation\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D191A2CE-AA01-44BD-829F-570F7B0F7AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1394C58-C850-48DA-8510-6F089AF01AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Interactions" sheetId="29" r:id="rId1"/>
-    <sheet name="FICS-EVNT-TYP " sheetId="23" r:id="rId2"/>
+    <sheet name="FICS-EVNT-TYP" sheetId="23" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>N</t>
   </si>
@@ -79,6 +69,9 @@
   </si>
   <si>
     <t>E2ECIRRSEST523200</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -575,7 +568,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850B4D7D-F3BB-4111-85EA-8B2E443962DA}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -603,7 +598,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">

--- a/src/main/resources/data/testData.xlsx
+++ b/src/main/resources/data/testData.xlsx
@@ -8,34 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\DataValidationAutomation\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1394C58-C850-48DA-8510-6F089AF01AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A69E0E7-3586-4F3D-89B0-2D01F1B1807E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Interactions" sheetId="29" r:id="rId1"/>
-    <sheet name="FICS-EVNT-TYP" sheetId="23" r:id="rId2"/>
+    <sheet name="FICS-EVNT-TYP" sheetId="23" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>FROM_CLM_SYS_ID</t>
-  </si>
-  <si>
-    <t>TO_CLM_SYS_ID</t>
-  </si>
-  <si>
-    <t>ESOC_MSTR_ID</t>
-  </si>
-  <si>
-    <t>CIRR</t>
   </si>
   <si>
     <t>EVNT-TYP-ID</t>
@@ -50,27 +37,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>RULE-ID</t>
-  </si>
-  <si>
-    <t>RULE-SUB-ID</t>
-  </si>
-  <si>
-    <t>CLM-SYS-ID</t>
-  </si>
-  <si>
-    <t>Interaction ID</t>
-  </si>
-  <si>
-    <t>Request-ID</t>
-  </si>
-  <si>
-    <t>SEST</t>
-  </si>
-  <si>
-    <t>E2ECIRRSEST523200</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
 </sst>
@@ -78,30 +44,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,7 +73,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -150,24 +96,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -178,19 +111,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,80 +416,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B5C40D-1ED7-49AD-95ED-EF28602F4E5E}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="6" max="6" width="11.6328125" customWidth="1"/>
-    <col min="7" max="7" width="21.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
-        <v>6151</v>
-      </c>
-      <c r="B2" s="10">
-        <v>10</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="12">
-        <v>5232</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="4">
-        <v>935</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850B4D7D-F3BB-4111-85EA-8B2E443962DA}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -581,13 +432,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -595,10 +446,10 @@
         <v>17460</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -606,7 +457,7 @@
         <v>19502</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>0</v>
@@ -617,7 +468,7 @@
         <v>19503</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>0</v>
@@ -630,31 +481,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <TemplateDate xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Template xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <MCCR xmlns="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <DocumentStatus xmlns="http://schemas.microsoft.com/sharepoint/v3/fields">Completed</DocumentStatus>
-    <TemplateVersion xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Project_x0020_ID xmlns="41338379-4917-48bc-be0f-c7a66961d8c2">
-      <Value>2</Value>
-    </Project_x0020_ID>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>True</openByDefault>
-  <xsnScope/>
-</customXsn>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005C9D0C5763FE41BCA34F28934212865F46005DB9B16EE45DCE4C89D0020A995153D3" ma:contentTypeVersion="2" ma:contentTypeDescription="Document" ma:contentTypeScope="" ma:versionID="cf1ca0763a034f2ff13cc1b9a9666cae">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns3="41338379-4917-48bc-be0f-c7a66961d8c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb57fb74924247c37263d286c14933eb" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3/fields"/>
@@ -771,40 +606,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>True</openByDefault>
+  <xsnScope/>
+</customXsn>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <TemplateDate xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Template xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <MCCR xmlns="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <DocumentStatus xmlns="http://schemas.microsoft.com/sharepoint/v3/fields">Completed</DocumentStatus>
+    <TemplateVersion xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Project_x0020_ID xmlns="41338379-4917-48bc-be0f-c7a66961d8c2">
+      <Value>2</Value>
+    </Project_x0020_ID>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B9DBFD7-E5DB-4A8B-9FAE-015FBC04292E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F89862E-4EC3-4C0A-A42F-A0E63672F4E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="41338379-4917-48bc-be0f-c7a66961d8c2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DCA9669-8DF1-466A-90C2-36F6D0A66ED5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A94ABEC0-69A6-4201-8887-DC6EED9B2B24}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -822,10 +657,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DCA9669-8DF1-466A-90C2-36F6D0A66ED5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F89862E-4EC3-4C0A-A42F-A0E63672F4E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B9DBFD7-E5DB-4A8B-9FAE-015FBC04292E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="41338379-4917-48bc-be0f-c7a66961d8c2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>